--- a/druid/gearenchant.xlsx
+++ b/druid/gearenchant.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="528" windowWidth="9372" windowHeight="7620"/>
+    <workbookView xWindow="420" yWindow="528" windowWidth="9372" windowHeight="7620" tabRatio="865" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ecnahnts" sheetId="1" r:id="rId1"/>
     <sheet name="farm" sheetId="2" r:id="rId2"/>
-    <sheet name="quests" sheetId="3" r:id="rId3"/>
+    <sheet name="quests" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="definitivo" sheetId="4" r:id="rId4"/>
+    <sheet name="misc" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">definitivo!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">farm!$A$1:$H$72</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="290">
   <si>
     <t>name</t>
   </si>
@@ -576,9 +579,6 @@
     <t>dodge</t>
   </si>
   <si>
-    <t>major health</t>
-  </si>
-  <si>
     <t>superior stamina</t>
   </si>
   <si>
@@ -591,9 +591,6 @@
     <t>greater agility</t>
   </si>
   <si>
-    <t>greater stamina</t>
-  </si>
-  <si>
     <t>agility</t>
   </si>
   <si>
@@ -601,6 +598,304 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>where2</t>
+  </si>
+  <si>
+    <t>Bone Ring Helm</t>
+  </si>
+  <si>
+    <t>Master Sergeant’s Insignia</t>
+  </si>
+  <si>
+    <t>Golden Mantle of the Dawn</t>
+  </si>
+  <si>
+    <t>Sergeant's Cape</t>
+  </si>
+  <si>
+    <t>Malefic Bracers</t>
+  </si>
+  <si>
+    <t>Smoking Heart of the Mountain</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>shoulders</t>
+  </si>
+  <si>
+    <t>waist</t>
+  </si>
+  <si>
+    <t>scholo</t>
+  </si>
+  <si>
+    <t>rattlegore</t>
+  </si>
+  <si>
+    <t>pvp</t>
+  </si>
+  <si>
+    <t>rank 4</t>
+  </si>
+  <si>
+    <t>rank 3</t>
+  </si>
+  <si>
+    <t>crafted</t>
+  </si>
+  <si>
+    <t>leatherworking</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>lbrs</t>
+  </si>
+  <si>
+    <t>urok</t>
+  </si>
+  <si>
+    <t>ras frostwhisper</t>
+  </si>
+  <si>
+    <t>brd</t>
+  </si>
+  <si>
+    <t>general angerforge</t>
+  </si>
+  <si>
+    <t>strat live</t>
+  </si>
+  <si>
+    <t>archivist galford</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>hidden treasures</t>
+  </si>
+  <si>
+    <t>enchanting</t>
+  </si>
+  <si>
+    <t>for the horde!</t>
+  </si>
+  <si>
+    <t>Battle of Darrowshire</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>farm ab exalted</t>
+  </si>
+  <si>
+    <t>farm wsg exalted</t>
+  </si>
+  <si>
+    <t>pvp rank 5</t>
+  </si>
+  <si>
+    <t>diremaul n</t>
+  </si>
+  <si>
+    <t>tribute</t>
+  </si>
+  <si>
+    <t>finish warlord's command</t>
+  </si>
+  <si>
+    <t>Insightful Hood</t>
+  </si>
+  <si>
+    <t>cho'rush</t>
+  </si>
+  <si>
+    <t>cannon master</t>
+  </si>
+  <si>
+    <t>briarwood reed</t>
+  </si>
+  <si>
+    <t>ubrs</t>
+  </si>
+  <si>
+    <t>jed runewatcher</t>
+  </si>
+  <si>
+    <t>royal seal of eldre</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>diremaul</t>
+  </si>
+  <si>
+    <t>rosewine circle</t>
+  </si>
+  <si>
+    <t>fordring's seal</t>
+  </si>
+  <si>
+    <t>in dreams</t>
+  </si>
+  <si>
+    <t>preq miranda the hag --&gt; manzana scarlet</t>
+  </si>
+  <si>
+    <t>verdant footpads</t>
+  </si>
+  <si>
+    <t>strat ud</t>
+  </si>
+  <si>
+    <t>stonespine</t>
+  </si>
+  <si>
+    <t>key strat live</t>
+  </si>
+  <si>
+    <t>shoulders (best)</t>
+  </si>
+  <si>
+    <t>pants (best)</t>
+  </si>
+  <si>
+    <t>bracers (best for a while)</t>
+  </si>
+  <si>
+    <t>ah check for warden staff</t>
+  </si>
+  <si>
+    <t>comida + pots de tanke / healer</t>
+  </si>
+  <si>
+    <t>padre's trousers</t>
+  </si>
+  <si>
+    <t>diremaul w</t>
+  </si>
+  <si>
+    <t>illyanna</t>
+  </si>
+  <si>
+    <t>whipvine cord</t>
+  </si>
+  <si>
+    <t>diremaul e</t>
+  </si>
+  <si>
+    <t>alzzin</t>
+  </si>
+  <si>
+    <t>hands of the exalted herald</t>
+  </si>
+  <si>
+    <t>princess</t>
+  </si>
+  <si>
+    <t>bracers of prosperity</t>
+  </si>
+  <si>
+    <t>king gordok</t>
+  </si>
+  <si>
+    <t>robes of the exalted</t>
+  </si>
+  <si>
+    <t>baron</t>
+  </si>
+  <si>
+    <t>archivist cape</t>
+  </si>
+  <si>
+    <t>roccor</t>
+  </si>
+  <si>
+    <t>mantle of lost hope</t>
+  </si>
+  <si>
+    <t>ramstein</t>
+  </si>
+  <si>
+    <t>conseguir la quest de rammstein</t>
+  </si>
+  <si>
+    <t>farmear mats de enchanting</t>
+  </si>
+  <si>
+    <t>completar q: Operation: Death to Angerforge</t>
+  </si>
+  <si>
+    <t>farmear mantle of the dawn:</t>
+  </si>
+  <si>
+    <t>4 living essence + 4 guardian stone</t>
+  </si>
+  <si>
+    <t>conseguir los mats para subir enchanting a 265</t>
+  </si>
+  <si>
+    <t>iron counterweight + manual crowd pummelers</t>
+  </si>
+  <si>
+    <t>LBRS</t>
+  </si>
+  <si>
+    <t>coger quest matar urok</t>
+  </si>
+  <si>
+    <t>terminar la mision de chromie en las western</t>
+  </si>
+  <si>
+    <t>acabar al menos un brd para la mision de la princess</t>
+  </si>
+  <si>
+    <t>sobre la quest in dreams:</t>
+  </si>
+  <si>
+    <t>I was able to get the quest and complete it solo. Things to watch out for:
+If you see 2 or more Isilien's at the tower running into Hearthglen with your disguise, wait until they despawn.
+Scarlet subterfuge:
+- Do NOT turn in if the 4 NPCs are NOT surrounding him.
+- If Taelan does not spawn, delete your WDB folder, get a fresh new illusion from Myranda and try again.</t>
+  </si>
+  <si>
+    <t>pillar la foto de familia de stratholme para tyrion, y despues a por miranda</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>if you put the quest trinku and do not see the ghosts try to change their trinki places helped me</t>
+  </si>
+  <si>
+    <t>quest del lich de scholo</t>
+  </si>
+  <si>
+    <t>empieza en la entrada, cogerla y tirar a las arathi</t>
+  </si>
+  <si>
+    <t>cadena de quests para matar a ramstein</t>
+  </si>
+  <si>
+    <t>https://vanilla-twinhead.twinstar.cz/?quest=6133</t>
+  </si>
+  <si>
+    <t>farmear frayed abomination stichings de strat ud para el enchant de dodge</t>
+  </si>
+  <si>
+    <t>farmear la blood of heroes que sale antes de entrar a las eastern plaguelands</t>
+  </si>
+  <si>
+    <t>farmear skin of shadow de scholomance</t>
   </si>
 </sst>
 </file>
@@ -636,7 +931,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +960,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
         <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -708,18 +1009,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -728,7 +1024,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,6 +1036,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,67 +1372,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="15" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1129,38 +1443,38 @@
       <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
         <v>4</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17">
         <v>8</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17">
         <v>6</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="17">
         <v>6</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="17">
         <v>1</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1169,34 +1483,34 @@
       <c r="B3" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="17">
         <v>4</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="17">
         <v>6</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17">
         <v>2</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1205,26 +1519,26 @@
       <c r="B4" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
       <c r="U4">
         <v>1</v>
       </c>
@@ -1236,30 +1550,30 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="17">
         <v>3</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1268,36 +1582,36 @@
       <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
         <v>2</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17">
         <v>4</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="17">
         <v>20</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="17">
         <v>6</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1306,28 +1620,28 @@
       <c r="B7" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
         <v>1</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1336,34 +1650,34 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <v>3</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <v>8</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17">
         <v>1</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1372,28 +1686,28 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17">
         <v>2</v>
       </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17">
         <v>3</v>
       </c>
     </row>
@@ -1404,32 +1718,32 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17">
         <v>1</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="17">
         <v>1</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="17">
         <v>1</v>
       </c>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1438,34 +1752,34 @@
       <c r="B11" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>3</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="17">
         <v>8</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17">
         <v>8</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1474,224 +1788,230 @@
       <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17">
         <v>8</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23">
-        <v>6</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
+        <v>4</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17">
+        <v>15</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" t="s">
         <v>186</v>
       </c>
-      <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
         <v>15</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="17">
         <v>3</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="17">
         <v>8</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17">
         <v>8</v>
       </c>
-      <c r="T15" s="23"/>
+      <c r="T15" s="17"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
         <v>1</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="17">
         <v>3</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23">
-        <v>10</v>
-      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
         <v>6</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17">
         <v>6</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="17">
         <v>4</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17">
         <v>2</v>
       </c>
-      <c r="T18" s="23"/>
+      <c r="T18" s="17"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1700,26 +2020,26 @@
       <c r="B19" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1728,271 +2048,271 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
         <v>4</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17">
         <v>10</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="17">
         <v>15</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17">
         <v>6</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="17">
         <v>6</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="17">
         <v>3</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="17">
         <v>8</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17">
         <v>8</v>
       </c>
-      <c r="T22" s="23"/>
+      <c r="T22" s="17"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17">
         <v>1</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="17">
         <v>3</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17">
         <v>8</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17">
         <v>6</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17">
         <v>6</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="17">
         <v>4</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23">
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17">
         <v>2</v>
       </c>
-      <c r="T25" s="23"/>
+      <c r="T25" s="17"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="21">
+      <c r="A26" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="15">
         <f>SUM(E2:E25)</f>
         <v>16</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="15">
         <f t="shared" ref="F26:U26" si="0">SUM(F2:F25)</f>
-        <v>60</v>
-      </c>
-      <c r="G26" s="21">
+        <v>64</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L26" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H26" s="21">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="I26" s="21">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="J26" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K26" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L26" s="21">
+      <c r="M26" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M26" s="21">
+      <c r="N26" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N26" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P26" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="21">
+      <c r="O26" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R26" s="21">
+      <c r="P26" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q26" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R26" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="15">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="U26" s="21">
+        <v>3</v>
+      </c>
+      <c r="U26" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2010,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,839 +2357,843 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
+      <c r="A3" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+      <c r="A4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
+      <c r="A5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
+      <c r="A6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
+      <c r="A8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
+      <c r="A9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
+      <c r="A10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
+      <c r="A11" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>38</v>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
+      <c r="A13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
+      <c r="A14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>45</v>
+      <c r="A15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>129</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
+      <c r="A17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>52</v>
+      <c r="A18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>91</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="C41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>93</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>99</v>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>105</v>
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>105</v>
+      <c r="A49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
-        <v>107</v>
+      <c r="A50" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>110</v>
+      <c r="A51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>112</v>
+      <c r="A52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>112</v>
+      <c r="A53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>115</v>
+      <c r="A54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>117</v>
+      <c r="A55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>119</v>
+      <c r="A56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>121</v>
+      <c r="A57" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>123</v>
+      <c r="A58" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>123</v>
+      <c r="A59" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="C59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>131</v>
+      <c r="A63" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>133</v>
+      <c r="A64" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>133</v>
+      <c r="A65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C72" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H72"/>
+  <autoFilter ref="A1:H72">
+    <sortState ref="A2:H72">
+      <sortCondition ref="C1:C72"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A1:H72">
     <sortCondition ref="B1:B72"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="A15" r:id="rId4"/>
-    <hyperlink ref="A16" r:id="rId5"/>
-    <hyperlink ref="A17" r:id="rId6"/>
-    <hyperlink ref="A20" r:id="rId7"/>
-    <hyperlink ref="A25" r:id="rId8"/>
-    <hyperlink ref="A26" r:id="rId9"/>
-    <hyperlink ref="A28" r:id="rId10"/>
-    <hyperlink ref="A32" r:id="rId11"/>
-    <hyperlink ref="A41" r:id="rId12"/>
-    <hyperlink ref="A47" r:id="rId13"/>
-    <hyperlink ref="A51" r:id="rId14"/>
-    <hyperlink ref="A53" r:id="rId15"/>
-    <hyperlink ref="A61" r:id="rId16"/>
-    <hyperlink ref="A63" r:id="rId17"/>
-    <hyperlink ref="A65" r:id="rId18"/>
-    <hyperlink ref="A68" r:id="rId19"/>
-    <hyperlink ref="A69" r:id="rId20"/>
+    <hyperlink ref="A52" r:id="rId1"/>
+    <hyperlink ref="A25" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A67" r:id="rId4"/>
+    <hyperlink ref="A53" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A68" r:id="rId7"/>
+    <hyperlink ref="A35" r:id="rId8"/>
+    <hyperlink ref="A55" r:id="rId9"/>
+    <hyperlink ref="A38" r:id="rId10"/>
+    <hyperlink ref="A14" r:id="rId11"/>
+    <hyperlink ref="A36" r:id="rId12"/>
+    <hyperlink ref="A56" r:id="rId13"/>
+    <hyperlink ref="A58" r:id="rId14"/>
+    <hyperlink ref="A43" r:id="rId15"/>
+    <hyperlink ref="A19" r:id="rId16"/>
+    <hyperlink ref="A65" r:id="rId17"/>
+    <hyperlink ref="A24" r:id="rId18"/>
+    <hyperlink ref="A17" r:id="rId19"/>
+    <hyperlink ref="A61" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
@@ -2888,4 +3212,736 @@
   <sheetData/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E31">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/druid/gearenchant.xlsx
+++ b/druid/gearenchant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="528" windowWidth="9372" windowHeight="7620" tabRatio="865" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="13704" windowHeight="8820" tabRatio="865" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ecnahnts" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="misc" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">definitivo!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">definitivo!$A$1:$E$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">farm!$A$1:$H$72</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="298">
   <si>
     <t>name</t>
   </si>
@@ -897,12 +897,36 @@
   <si>
     <t>farmear skin of shadow de scholomance</t>
   </si>
+  <si>
+    <t>macro de enrage que cncela el efecto</t>
+  </si>
+  <si>
+    <t>macro de autoattack y faerie fire</t>
+  </si>
+  <si>
+    <t>https://nirklars.wordpress.com/wow/vanilla-wow-druid/</t>
+  </si>
+  <si>
+    <t>timbermaw hold repu</t>
+  </si>
+  <si>
+    <t>-&gt; all resist, blessed food</t>
+  </si>
+  <si>
+    <t>argent dawn repu revered</t>
+  </si>
+  <si>
+    <t>sólo si enchanter</t>
+  </si>
+  <si>
+    <t>mirar spec para raid / boss farming</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -929,6 +953,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1009,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1037,9 +1068,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1055,6 +1083,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2242,12 +2275,12 @@
       <c r="T25" s="17"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="15">
         <f>SUM(E2:E25)</f>
         <v>16</v>
@@ -2357,7 +2390,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2368,10 +2401,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="s">
@@ -2379,7 +2412,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2390,7 +2423,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2401,7 +2434,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2434,7 +2467,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2448,7 +2481,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2459,7 +2492,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2473,7 +2506,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
@@ -2481,7 +2514,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2492,10 +2525,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C14" t="s">
@@ -2503,7 +2536,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3099,7 +3132,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -3216,10 +3249,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3265,41 +3299,41 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3316,20 +3350,20 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3350,38 +3384,38 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3401,7 +3435,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -3418,24 +3452,24 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -3469,7 +3503,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -3487,36 +3521,36 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3571,7 +3605,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -3656,112 +3690,117 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" t="s">
-        <v>234</v>
+        <v>259</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
-    <sortState ref="A2:E31">
-      <sortCondition ref="D1"/>
+  <autoFilter ref="A1:E31">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="tank"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A3:E31">
+      <sortCondition ref="C1:C31"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3770,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3850,7 +3889,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3897,7 +3936,7 @@
       <c r="A19" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3913,7 +3952,7 @@
       <c r="A21" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3926,7 +3965,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3938,6 +3977,40 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/druid/gearenchant.xlsx
+++ b/druid/gearenchant.xlsx
@@ -16,13 +16,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">definitivo!$A$1:$E$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">farm!$A$1:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">misc!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="305">
   <si>
     <t>name</t>
   </si>
@@ -747,9 +748,6 @@
     <t>in dreams</t>
   </si>
   <si>
-    <t>preq miranda the hag --&gt; manzana scarlet</t>
-  </si>
-  <si>
     <t>verdant footpads</t>
   </si>
   <si>
@@ -759,9 +757,6 @@
     <t>stonespine</t>
   </si>
   <si>
-    <t>key strat live</t>
-  </si>
-  <si>
     <t>shoulders (best)</t>
   </si>
   <si>
@@ -825,9 +820,6 @@
     <t>ramstein</t>
   </si>
   <si>
-    <t>conseguir la quest de rammstein</t>
-  </si>
-  <si>
     <t>farmear mats de enchanting</t>
   </si>
   <si>
@@ -841,12 +833,6 @@
   </si>
   <si>
     <t>conseguir los mats para subir enchanting a 265</t>
-  </si>
-  <si>
-    <t>iron counterweight + manual crowd pummelers</t>
-  </si>
-  <si>
-    <t>LBRS</t>
   </si>
   <si>
     <t>coger quest matar urok</t>
@@ -871,9 +857,6 @@
     <t>pillar la foto de familia de stratholme para tyrion, y despues a por miranda</t>
   </si>
   <si>
-    <t>tips</t>
-  </si>
-  <si>
     <t>if you put the quest trinku and do not see the ghosts try to change their trinki places helped me</t>
   </si>
   <si>
@@ -889,15 +872,9 @@
     <t>https://vanilla-twinhead.twinstar.cz/?quest=6133</t>
   </si>
   <si>
-    <t>farmear frayed abomination stichings de strat ud para el enchant de dodge</t>
-  </si>
-  <si>
     <t>farmear la blood of heroes que sale antes de entrar a las eastern plaguelands</t>
   </si>
   <si>
-    <t>farmear skin of shadow de scholomance</t>
-  </si>
-  <si>
     <t>macro de enrage que cncela el efecto</t>
   </si>
   <si>
@@ -920,6 +897,51 @@
   </si>
   <si>
     <t>mirar spec para raid / boss farming</t>
+  </si>
+  <si>
+    <t>farmear roccor --&gt; formula smoking heart of the mountain + idol cat</t>
+  </si>
+  <si>
+    <t>key strat live --&gt; kill magistrate barthilas (strat ud), además, cuando salga, da el idol de oso</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>iron counterweight</t>
+  </si>
+  <si>
+    <t>manual crowd pummelers</t>
+  </si>
+  <si>
+    <t>gnomeregan</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>farmear skin of shadow ( 5 )</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>felwood</t>
+  </si>
+  <si>
+    <t>plaguelands</t>
+  </si>
+  <si>
+    <t>farmear Mor Grayhoof --&gt; idol reju (cuando esté)</t>
+  </si>
+  <si>
+    <t>farmear frayed abomination (enchant dodge)</t>
+  </si>
+  <si>
+    <t>donde</t>
+  </si>
+  <si>
+    <t>que</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1089,6 +1111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3304,7 +3327,7 @@
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>175</v>
@@ -3321,16 +3344,16 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" t="s">
         <v>243</v>
-      </c>
-      <c r="E4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3389,16 +3412,16 @@
         <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3406,7 +3429,7 @@
         <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>25</v>
@@ -3415,7 +3438,7 @@
         <v>213</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3463,10 +3486,10 @@
         <v>199</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3474,16 +3497,16 @@
         <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3695,7 +3718,7 @@
         <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>200</v>
@@ -3704,7 +3727,7 @@
         <v>213</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3746,16 +3769,16 @@
         <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s">
         <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3780,7 +3803,7 @@
         <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>46</v>
@@ -3789,7 +3812,7 @@
         <v>226</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3809,211 +3832,301 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" t="s">
         <v>283</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C30" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>297</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D30">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/druid/gearenchant.xlsx
+++ b/druid/gearenchant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="13704" windowHeight="8820" tabRatio="865" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="13704" windowHeight="8820" tabRatio="865" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ecnahnts" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="quests" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="definitivo" sheetId="4" r:id="rId4"/>
     <sheet name="misc" sheetId="5" r:id="rId5"/>
+    <sheet name="professions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">definitivo!$A$1:$E$31</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="340">
   <si>
     <t>name</t>
   </si>
@@ -943,12 +944,117 @@
   <si>
     <t>que</t>
   </si>
+  <si>
+    <t>mithril spurs</t>
+  </si>
+  <si>
+    <t>mount speed</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>subir tailor a un alter para el cd de mooncloth</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>ppu</t>
+  </si>
+  <si>
+    <t>Linen Cloth</t>
+  </si>
+  <si>
+    <t>Wool Cloth</t>
+  </si>
+  <si>
+    <t>Silk Cloth</t>
+  </si>
+  <si>
+    <t>Mageweave Cloth</t>
+  </si>
+  <si>
+    <t>Runecloth</t>
+  </si>
+  <si>
+    <t>Rugged Leather</t>
+  </si>
+  <si>
+    <t>Coarse Thread</t>
+  </si>
+  <si>
+    <t>Fine Thread</t>
+  </si>
+  <si>
+    <t>Silken Thread</t>
+  </si>
+  <si>
+    <t>Heavy Silken Thread</t>
+  </si>
+  <si>
+    <t>Rune Thread</t>
+  </si>
+  <si>
+    <t>Strange Dust</t>
+  </si>
+  <si>
+    <t>Greater Magic Essence</t>
+  </si>
+  <si>
+    <t>Lesser Astral Essence</t>
+  </si>
+  <si>
+    <t>Soul Dust</t>
+  </si>
+  <si>
+    <t>Golden Rod</t>
+  </si>
+  <si>
+    <t>Iridescent Pearl</t>
+  </si>
+  <si>
+    <t>Greater Astral Essence</t>
+  </si>
+  <si>
+    <t>Lesser Mystic Essence</t>
+  </si>
+  <si>
+    <t>Vision Dust</t>
+  </si>
+  <si>
+    <t>Truesilver Rod</t>
+  </si>
+  <si>
+    <t>Black Pearl</t>
+  </si>
+  <si>
+    <t>Greater Mystic Essence</t>
+  </si>
+  <si>
+    <t>Lesser Nether Essence</t>
+  </si>
+  <si>
+    <t>Dream Dust</t>
+  </si>
+  <si>
+    <t>Greater Nether Essence</t>
+  </si>
+  <si>
+    <t>TAILOR (300)</t>
+  </si>
+  <si>
+    <t>ENCHANTING (265)</t>
+  </si>
+  <si>
+    <t>https://vanilla-twinhead.twinstar.cz/?item=18510</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -978,6 +1084,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1064,19 +1184,15 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1108,10 +1224,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1416,7 +1540,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,67 +1552,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1499,38 +1623,38 @@
       <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13">
         <v>4</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
         <v>6</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="13">
         <v>6</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="13">
         <v>1</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1539,34 +1663,34 @@
       <c r="B3" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <v>6</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13">
         <v>2</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1575,26 +1699,26 @@
       <c r="B4" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
       <c r="U4">
         <v>1</v>
       </c>
@@ -1606,30 +1730,30 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <v>3</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1638,36 +1762,36 @@
       <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
         <v>2</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>4</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>20</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <v>6</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1676,28 +1800,28 @@
       <c r="B7" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <v>1</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1706,34 +1830,34 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>3</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>8</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13">
         <v>1</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1742,28 +1866,28 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13">
         <v>2</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13">
         <v>3</v>
       </c>
     </row>
@@ -1774,32 +1898,32 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13">
         <v>1</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="13">
         <v>1</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="13">
         <v>1</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1808,34 +1932,34 @@
       <c r="B11" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>8</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13">
         <v>8</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1844,28 +1968,28 @@
       <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
         <v>8</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1874,32 +1998,32 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
         <v>4</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <v>10</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="13">
         <v>15</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1908,28 +2032,28 @@
       <c r="B14" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13">
         <v>15</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1938,34 +2062,34 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>3</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <v>8</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13">
         <v>8</v>
       </c>
-      <c r="T15" s="17"/>
+      <c r="T15" s="13"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1974,30 +2098,30 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="13">
         <v>3</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2006,32 +2130,32 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13">
         <v>1</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="13">
         <v>1</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="13">
         <v>1</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2040,34 +2164,34 @@
       <c r="B18" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13">
         <v>6</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13">
         <v>6</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="13">
         <v>4</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17">
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13">
         <v>2</v>
       </c>
-      <c r="T18" s="17"/>
+      <c r="T18" s="13"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -2076,26 +2200,26 @@
       <c r="B19" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2104,32 +2228,32 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
         <v>4</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13">
         <v>10</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="13">
         <v>15</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2138,30 +2262,30 @@
       <c r="B21" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13">
         <v>6</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="13">
         <v>6</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2170,34 +2294,34 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>3</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="13">
         <v>8</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13">
         <v>8</v>
       </c>
-      <c r="T22" s="17"/>
+      <c r="T22" s="13"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2206,30 +2330,30 @@
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13">
         <v>1</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="13">
         <v>3</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2238,28 +2362,28 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13">
         <v>8</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2268,107 +2392,107 @@
       <c r="B25" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
         <v>6</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13">
         <v>6</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="13">
         <v>4</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13">
         <v>2</v>
       </c>
-      <c r="T25" s="17"/>
+      <c r="T25" s="13"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="15">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="11">
         <f>SUM(E2:E25)</f>
         <v>16</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="11">
         <f t="shared" ref="F26:U26" si="0">SUM(F2:F25)</f>
         <v>64</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="11">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S26" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T26" s="15">
+      <c r="T26" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U26" s="15">
+      <c r="U26" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2387,7 +2511,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2413,32 +2537,32 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>85</v>
+      <c r="A2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>99</v>
+      <c r="A3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C4" t="s">
@@ -2446,10 +2570,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C5" t="s">
@@ -2457,30 +2581,30 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>138</v>
+      <c r="A6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>40</v>
+      <c r="A7" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
+      <c r="A8" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>38</v>
@@ -2490,11 +2614,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
+      <c r="A9" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -2504,43 +2628,43 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>74</v>
+      <c r="A10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>125</v>
+      <c r="A11" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>13</v>
+      <c r="A12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C13" t="s">
@@ -2548,10 +2672,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C14" t="s">
@@ -2559,32 +2683,32 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>105</v>
+      <c r="A15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>128</v>
+      <c r="A16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C17" t="s">
@@ -2592,54 +2716,54 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>87</v>
+      <c r="A18" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>127</v>
+      <c r="A19" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>133</v>
+      <c r="A20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
+      <c r="A21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C22" t="s">
@@ -2647,43 +2771,43 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>121</v>
+      <c r="A23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>133</v>
+      <c r="A24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>23</v>
+      <c r="A25" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
@@ -2691,54 +2815,54 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>75</v>
+      <c r="A27" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>93</v>
+      <c r="A28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>53</v>
+      <c r="A29" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>99</v>
+      <c r="A30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C31" t="s">
@@ -2746,164 +2870,164 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>144</v>
+      <c r="A32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>19</v>
+      <c r="A33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>38</v>
+      <c r="A34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>66</v>
+      <c r="A35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>93</v>
+      <c r="A36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>59</v>
+      <c r="A37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>72</v>
+      <c r="A38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>85</v>
+      <c r="A39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C39" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>96</v>
+      <c r="A40" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>93</v>
+      <c r="A41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>108</v>
+      <c r="A42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>112</v>
+      <c r="A43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C43" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>117</v>
+      <c r="A44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>148</v>
+      <c r="A45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C46" t="s">
@@ -2911,30 +3035,21 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>38</v>
+      <c r="A47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C48" t="s">
@@ -2956,20 +3071,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>82</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>83</v>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>82</v>
@@ -2978,176 +3102,176 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>16</v>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>21</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>59</v>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>68</v>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>103</v>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>106</v>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>109</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>115</v>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>119</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>142</v>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>59</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>59</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>123</v>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>131</v>
+      <c r="A65" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C66" t="s">
@@ -3155,11 +3279,11 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>45</v>
+      <c r="A67" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>46</v>
@@ -3167,54 +3291,54 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>70</v>
+      <c r="A69" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C69" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>90</v>
+      <c r="A70" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>93</v>
+      <c r="A71" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>136</v>
+      <c r="A72" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C72" t="s">
         <v>46</v>
@@ -3230,26 +3354,26 @@
     <sortCondition ref="B1:B72"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A52" r:id="rId1"/>
-    <hyperlink ref="A25" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
-    <hyperlink ref="A67" r:id="rId4"/>
-    <hyperlink ref="A53" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A68" r:id="rId7"/>
-    <hyperlink ref="A35" r:id="rId8"/>
-    <hyperlink ref="A55" r:id="rId9"/>
-    <hyperlink ref="A38" r:id="rId10"/>
+    <hyperlink ref="A59" r:id="rId1"/>
+    <hyperlink ref="A27" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A70" r:id="rId4"/>
+    <hyperlink ref="A57" r:id="rId5"/>
+    <hyperlink ref="A11" r:id="rId6"/>
+    <hyperlink ref="A67" r:id="rId7"/>
+    <hyperlink ref="A34" r:id="rId8"/>
+    <hyperlink ref="A56" r:id="rId9"/>
+    <hyperlink ref="A40" r:id="rId10"/>
     <hyperlink ref="A14" r:id="rId11"/>
-    <hyperlink ref="A36" r:id="rId12"/>
-    <hyperlink ref="A56" r:id="rId13"/>
-    <hyperlink ref="A58" r:id="rId14"/>
-    <hyperlink ref="A43" r:id="rId15"/>
-    <hyperlink ref="A19" r:id="rId16"/>
-    <hyperlink ref="A65" r:id="rId17"/>
-    <hyperlink ref="A24" r:id="rId18"/>
+    <hyperlink ref="A35" r:id="rId12"/>
+    <hyperlink ref="A61" r:id="rId13"/>
+    <hyperlink ref="A60" r:id="rId14"/>
+    <hyperlink ref="A38" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A63" r:id="rId17"/>
+    <hyperlink ref="A23" r:id="rId18"/>
     <hyperlink ref="A17" r:id="rId19"/>
-    <hyperlink ref="A61" r:id="rId20"/>
+    <hyperlink ref="A51" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
@@ -3272,11 +3396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,41 +3445,41 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>263</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3373,20 +3496,20 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3407,38 +3530,38 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>256</v>
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3458,7 +3581,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -3475,24 +3598,24 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -3526,7 +3649,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -3544,36 +3667,36 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="23" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3628,7 +3751,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -3713,117 +3836,112 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>258</v>
+        <v>232</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E31">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="tank"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A3:E31">
-      <sortCondition ref="C1:C31"/>
+      <sortCondition ref="D1:D31"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3832,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3857,7 +3975,7 @@
       <c r="A2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3903,21 +4021,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3925,42 +4040,45 @@
         <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>288</v>
+        <v>267</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>285</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3968,23 +4086,23 @@
         <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3992,32 +4110,26 @@
         <v>300</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" t="s">
-        <v>245</v>
+        <v>287</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4025,100 +4137,138 @@
         <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>202</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>215</v>
       </c>
-      <c r="B26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>242</v>
-      </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>273</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>302</v>
+      <c r="B28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>298</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" t="s">
         <v>283</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4130,4 +4280,461 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" activeCellId="1" sqref="C14 C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4">
+        <v>450</v>
+      </c>
+      <c r="D4">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>760</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5">
+        <v>195</v>
+      </c>
+      <c r="D5">
+        <v>148200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>520</v>
+      </c>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6">
+        <v>332</v>
+      </c>
+      <c r="D6">
+        <v>172640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>900</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7">
+        <v>613</v>
+      </c>
+      <c r="D7">
+        <v>551700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8">
+        <v>701</v>
+      </c>
+      <c r="D8">
+        <v>168240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f>A9*C9</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <f>A10*C10</f>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <f>A11*C11</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12">
+        <v>1600</v>
+      </c>
+      <c r="D12">
+        <f>A12*C12</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13">
+        <v>4000</v>
+      </c>
+      <c r="D13">
+        <f>A13*C13</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="28">
+        <f>SUM(D3:D13)/10000</f>
+        <v>141.19399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17">
+        <v>290</v>
+      </c>
+      <c r="D17">
+        <v>59740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19">
+        <v>1359</v>
+      </c>
+      <c r="D19">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20">
+        <v>470</v>
+      </c>
+      <c r="D20">
+        <v>31490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21">
+        <v>6000</v>
+      </c>
+      <c r="D21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22">
+        <v>1200</v>
+      </c>
+      <c r="D22">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23">
+        <v>1443</v>
+      </c>
+      <c r="D23">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24">
+        <v>4393</v>
+      </c>
+      <c r="D24">
+        <v>87860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25">
+        <v>700</v>
+      </c>
+      <c r="D25">
+        <v>119700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26">
+        <v>7800</v>
+      </c>
+      <c r="D26">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28">
+        <v>4895</v>
+      </c>
+      <c r="D28">
+        <v>9790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29">
+        <v>5698</v>
+      </c>
+      <c r="D29">
+        <v>56980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30">
+        <v>2500</v>
+      </c>
+      <c r="D30">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31">
+        <v>11249</v>
+      </c>
+      <c r="D31">
+        <v>269976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="28">
+        <f>SUM(D17:D31)/10000</f>
+        <v>81.301199999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/druid/gearenchant.xlsx
+++ b/druid/gearenchant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="13704" windowHeight="8820" tabRatio="865" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="13704" windowHeight="8820" tabRatio="865" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ecnahnts" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">definitivo!$A$1:$E$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">farm!$A$1:$H$72</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">misc!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">misc!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="379">
   <si>
     <t>name</t>
   </si>
@@ -617,9 +617,6 @@
     <t>Sergeant's Cape</t>
   </si>
   <si>
-    <t>Malefic Bracers</t>
-  </si>
-  <si>
     <t>Smoking Heart of the Mountain</t>
   </si>
   <si>
@@ -653,9 +650,6 @@
     <t>leatherworking</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
     <t>lbrs</t>
   </si>
   <si>
@@ -680,9 +674,6 @@
     <t>quest</t>
   </si>
   <si>
-    <t>hidden treasures</t>
-  </si>
-  <si>
     <t>enchanting</t>
   </si>
   <si>
@@ -719,9 +710,6 @@
     <t>cho'rush</t>
   </si>
   <si>
-    <t>cannon master</t>
-  </si>
-  <si>
     <t>briarwood reed</t>
   </si>
   <si>
@@ -767,12 +755,6 @@
     <t>bracers (best for a while)</t>
   </si>
   <si>
-    <t>ah check for warden staff</t>
-  </si>
-  <si>
-    <t>comida + pots de tanke / healer</t>
-  </si>
-  <si>
     <t>padre's trousers</t>
   </si>
   <si>
@@ -821,31 +803,13 @@
     <t>ramstein</t>
   </si>
   <si>
-    <t>farmear mats de enchanting</t>
-  </si>
-  <si>
     <t>completar q: Operation: Death to Angerforge</t>
   </si>
   <si>
-    <t>farmear mantle of the dawn:</t>
-  </si>
-  <si>
-    <t>4 living essence + 4 guardian stone</t>
-  </si>
-  <si>
-    <t>conseguir los mats para subir enchanting a 265</t>
-  </si>
-  <si>
     <t>coger quest matar urok</t>
   </si>
   <si>
-    <t>terminar la mision de chromie en las western</t>
-  </si>
-  <si>
     <t>acabar al menos un brd para la mision de la princess</t>
-  </si>
-  <si>
-    <t>sobre la quest in dreams:</t>
   </si>
   <si>
     <t>I was able to get the quest and complete it solo. Things to watch out for:
@@ -867,45 +831,15 @@
     <t>empieza en la entrada, cogerla y tirar a las arathi</t>
   </si>
   <si>
-    <t>cadena de quests para matar a ramstein</t>
-  </si>
-  <si>
-    <t>https://vanilla-twinhead.twinstar.cz/?quest=6133</t>
-  </si>
-  <si>
     <t>farmear la blood of heroes que sale antes de entrar a las eastern plaguelands</t>
   </si>
   <si>
-    <t>macro de enrage que cncela el efecto</t>
-  </si>
-  <si>
-    <t>macro de autoattack y faerie fire</t>
-  </si>
-  <si>
     <t>https://nirklars.wordpress.com/wow/vanilla-wow-druid/</t>
   </si>
   <si>
-    <t>timbermaw hold repu</t>
-  </si>
-  <si>
-    <t>-&gt; all resist, blessed food</t>
-  </si>
-  <si>
     <t>argent dawn repu revered</t>
   </si>
   <si>
-    <t>sólo si enchanter</t>
-  </si>
-  <si>
-    <t>mirar spec para raid / boss farming</t>
-  </si>
-  <si>
-    <t>farmear roccor --&gt; formula smoking heart of the mountain + idol cat</t>
-  </si>
-  <si>
-    <t>key strat live --&gt; kill magistrate barthilas (strat ud), además, cuando salga, da el idol de oso</t>
-  </si>
-  <si>
     <t>compras</t>
   </si>
   <si>
@@ -921,24 +855,12 @@
     <t>farm</t>
   </si>
   <si>
-    <t>farmear skin of shadow ( 5 )</t>
-  </si>
-  <si>
     <t>ui</t>
   </si>
   <si>
     <t>felwood</t>
   </si>
   <si>
-    <t>plaguelands</t>
-  </si>
-  <si>
-    <t>farmear Mor Grayhoof --&gt; idol reju (cuando esté)</t>
-  </si>
-  <si>
-    <t>farmear frayed abomination (enchant dodge)</t>
-  </si>
-  <si>
     <t>donde</t>
   </si>
   <si>
@@ -954,9 +876,6 @@
     <t>alter</t>
   </si>
   <si>
-    <t>subir tailor a un alter para el cd de mooncloth</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -1047,7 +966,205 @@
     <t>ENCHANTING (265)</t>
   </si>
   <si>
-    <t>https://vanilla-twinhead.twinstar.cz/?item=18510</t>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>warden staff</t>
+  </si>
+  <si>
+    <t>miri</t>
+  </si>
+  <si>
+    <t>comida tanke / healer</t>
+  </si>
+  <si>
+    <t>pots tanke / healer</t>
+  </si>
+  <si>
+    <t>mats de enchanting (ver pagina professions)</t>
+  </si>
+  <si>
+    <t>2 righteous orb</t>
+  </si>
+  <si>
+    <t>8 larval acid</t>
+  </si>
+  <si>
+    <t>eastern plaguelands</t>
+  </si>
+  <si>
+    <t>western plaguelands</t>
+  </si>
+  <si>
+    <t>terminar la mision de chromie en las western (raid)</t>
+  </si>
+  <si>
+    <t>donde2</t>
+  </si>
+  <si>
+    <t>Angerforge</t>
+  </si>
+  <si>
+    <t>Emperor</t>
+  </si>
+  <si>
+    <t>Roccor</t>
+  </si>
+  <si>
+    <t>que2</t>
+  </si>
+  <si>
+    <t>idol cat</t>
+  </si>
+  <si>
+    <t>formula smoking heart of the mountain</t>
+  </si>
+  <si>
+    <t>blacksmith</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>booty bay</t>
+  </si>
+  <si>
+    <t>overlord wyrm</t>
+  </si>
+  <si>
+    <t>riri</t>
+  </si>
+  <si>
+    <t>16 water</t>
+  </si>
+  <si>
+    <t>varios</t>
+  </si>
+  <si>
+    <t>ungoro</t>
+  </si>
+  <si>
+    <t>28 living essence</t>
+  </si>
+  <si>
+    <t>5 cured rugged hide</t>
+  </si>
+  <si>
+    <t>279 rugged</t>
+  </si>
+  <si>
+    <t>8 enchanted leather</t>
+  </si>
+  <si>
+    <t>malefic bracers</t>
+  </si>
+  <si>
+    <t>warosh</t>
+  </si>
+  <si>
+    <t>farm gloves</t>
+  </si>
+  <si>
+    <t>Mor Grayhoof</t>
+  </si>
+  <si>
+    <t>idol reju (cuando esté)</t>
+  </si>
+  <si>
+    <t>foto familia</t>
+  </si>
+  <si>
+    <t>magistrate barthilas</t>
+  </si>
+  <si>
+    <t>aboms</t>
+  </si>
+  <si>
+    <t>frayed abomination stitching (enchant dodge + breastplate of bloodthirst, cuantos más mejor + 10)</t>
+  </si>
+  <si>
+    <t>tailor</t>
+  </si>
+  <si>
+    <t>cd de mooncloth</t>
+  </si>
+  <si>
+    <t>idol de oso (cuando salga)</t>
+  </si>
+  <si>
+    <t>12 guardian stone</t>
+  </si>
+  <si>
+    <t>skin of shadow ( enchant healing + breastplate of bloodthirst, cuantos mas mejor + 5 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macro </t>
+  </si>
+  <si>
+    <t>de autoattack y faerie fire</t>
+  </si>
+  <si>
+    <t>quest key</t>
+  </si>
+  <si>
+    <t>ver en donde estamos, la siguiente parte era ir a gadgetan a pagar 15g</t>
+  </si>
+  <si>
+    <t>First Sergeant's Leather Armguards</t>
+  </si>
+  <si>
+    <t>rank 5</t>
+  </si>
+  <si>
+    <t>The Princess Saved?</t>
+  </si>
+  <si>
+    <t>150 Linen Cloth</t>
+  </si>
+  <si>
+    <t>stonetalon</t>
+  </si>
+  <si>
+    <t>arpias</t>
+  </si>
+  <si>
+    <t>200 wool cloth</t>
+  </si>
+  <si>
+    <t>Venture Co. Strip Miner</t>
+  </si>
+  <si>
+    <t>760 silk cloth</t>
+  </si>
+  <si>
+    <t>Jadefire Hellcaller</t>
+  </si>
+  <si>
+    <t>520 mageweave</t>
+  </si>
+  <si>
+    <t>38 slots inv</t>
+  </si>
+  <si>
+    <t>10 slots inv</t>
+  </si>
+  <si>
+    <t>26 slots inv</t>
+  </si>
+  <si>
+    <t>ras</t>
+  </si>
+  <si>
+    <t>major mana potion recipe</t>
+  </si>
+  <si>
+    <t>emperor</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>gusanos</t>
   </si>
 </sst>
 </file>
@@ -1090,12 +1207,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -1103,8 +1214,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,6 +1256,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,10 +1315,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1225,19 +1362,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1540,7 +1681,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2422,12 +2563,12 @@
       <c r="T25" s="13"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="11">
         <f>SUM(E2:E25)</f>
         <v>16</v>
@@ -2510,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3279,7 +3420,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -3396,10 +3537,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3429,518 +3571,523 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>200</v>
-      </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>195</v>
       </c>
-      <c r="C5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
         <v>207</v>
       </c>
-      <c r="E5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D7" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>222</v>
-      </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>222</v>
+      <c r="A9" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" t="s">
-        <v>230</v>
-      </c>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>222</v>
+      <c r="A12" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>222</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>222</v>
+      <c r="A15" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="C17" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="23" t="s">
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" t="s">
-        <v>239</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
       </c>
       <c r="D21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" t="s">
         <v>217</v>
       </c>
-      <c r="E21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    </row>
+    <row r="24" spans="1:5" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>193</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
         <v>202</v>
       </c>
-      <c r="E22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B25" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" t="s">
-        <v>216</v>
+      <c r="E25" s="23" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>222</v>
+      <c r="A26" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>175</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>222</v>
+      <c r="A28" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>222</v>
+      <c r="A29" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>222</v>
+      <c r="A30" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>222</v>
+      <c r="A31" s="34" t="s">
+        <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E31">
-    <sortState ref="A3:E31">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="heal"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:E31">
       <sortCondition ref="D1:D31"/>
     </sortState>
   </autoFilter>
@@ -3950,335 +4097,531 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="62.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="88" customWidth="1"/>
+    <col min="5" max="5" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="C6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>331</v>
+      </c>
+      <c r="C16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>274</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>336</v>
+      </c>
+      <c r="C19" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>286</v>
+        <v>365</v>
+      </c>
+      <c r="C20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>367</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>368</v>
+      </c>
+      <c r="D21" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>369</v>
       </c>
       <c r="C22" t="s">
-        <v>245</v>
+        <v>370</v>
+      </c>
+      <c r="D22" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="B23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" t="s">
         <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>343</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>274</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" t="s">
-        <v>291</v>
+        <v>321</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>302</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>298</v>
-      </c>
-      <c r="B31" t="s">
-        <v>282</v>
+        <v>203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>298</v>
-      </c>
-      <c r="B32" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B33" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="C33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>339</v>
+        <v>201</v>
+      </c>
+      <c r="B34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:E1">
     <sortState ref="A2:D30">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D42" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4286,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" activeCellId="1" sqref="C14 C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4299,22 +4642,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>191</v>
@@ -4325,7 +4668,7 @@
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -4339,7 +4682,7 @@
         <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C4">
         <v>450</v>
@@ -4353,7 +4696,7 @@
         <v>760</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -4367,7 +4710,7 @@
         <v>520</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C6">
         <v>332</v>
@@ -4381,7 +4724,7 @@
         <v>900</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C7">
         <v>613</v>
@@ -4395,7 +4738,7 @@
         <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C8">
         <v>701</v>
@@ -4409,7 +4752,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -4424,7 +4767,7 @@
         <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="C10">
         <v>80</v>
@@ -4439,7 +4782,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -4454,7 +4797,7 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <v>1600</v>
@@ -4469,7 +4812,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="C13">
         <v>4000</v>
@@ -4480,7 +4823,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>191</v>
       </c>
       <c r="D14" s="28">
@@ -4489,22 +4832,22 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>191</v>
@@ -4515,7 +4858,7 @@
         <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="C17">
         <v>290</v>
@@ -4529,7 +4872,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C18">
         <v>1000</v>
@@ -4543,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C19">
         <v>1359</v>
@@ -4557,7 +4900,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C20">
         <v>470</v>
@@ -4571,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="C21">
         <v>6000</v>
@@ -4585,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C22">
         <v>1200</v>
@@ -4599,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C23">
         <v>1443</v>
@@ -4613,7 +4956,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C24">
         <v>4393</v>
@@ -4627,7 +4970,7 @@
         <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C25">
         <v>700</v>
@@ -4641,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C26">
         <v>7800</v>
@@ -4655,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C27">
         <v>1000</v>
@@ -4669,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C28">
         <v>4895</v>
@@ -4683,7 +5026,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C29">
         <v>5698</v>
@@ -4697,7 +5040,7 @@
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C30">
         <v>2500</v>
@@ -4711,7 +5054,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C31">
         <v>11249</v>
@@ -4721,7 +5064,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="31" t="s">
         <v>191</v>
       </c>
       <c r="D32" s="28">

--- a/druid/gearenchant.xlsx
+++ b/druid/gearenchant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="385">
   <si>
     <t>name</t>
   </si>
@@ -701,9 +701,6 @@
     <t>tribute</t>
   </si>
   <si>
-    <t>finish warlord's command</t>
-  </si>
-  <si>
     <t>Insightful Hood</t>
   </si>
   <si>
@@ -804,9 +801,6 @@
   </si>
   <si>
     <t>completar q: Operation: Death to Angerforge</t>
-  </si>
-  <si>
-    <t>coger quest matar urok</t>
   </si>
   <si>
     <t>acabar al menos un brd para la mision de la princess</t>
@@ -1029,24 +1023,15 @@
     <t>booty bay</t>
   </si>
   <si>
-    <t>overlord wyrm</t>
-  </si>
-  <si>
     <t>riri</t>
   </si>
   <si>
-    <t>16 water</t>
-  </si>
-  <si>
     <t>varios</t>
   </si>
   <si>
     <t>ungoro</t>
   </si>
   <si>
-    <t>28 living essence</t>
-  </si>
-  <si>
     <t>5 cured rugged hide</t>
   </si>
   <si>
@@ -1059,12 +1044,6 @@
     <t>malefic bracers</t>
   </si>
   <si>
-    <t>warosh</t>
-  </si>
-  <si>
-    <t>farm gloves</t>
-  </si>
-  <si>
     <t>Mor Grayhoof</t>
   </si>
   <si>
@@ -1165,6 +1144,45 @@
   </si>
   <si>
     <t>gusanos</t>
+  </si>
+  <si>
+    <t>mighty spirit</t>
+  </si>
+  <si>
+    <t>tbh</t>
+  </si>
+  <si>
+    <t>greater agility gloves</t>
+  </si>
+  <si>
+    <t>orgrimmar</t>
+  </si>
+  <si>
+    <t>thrall</t>
+  </si>
+  <si>
+    <t>quest follow up onyxia</t>
+  </si>
+  <si>
+    <t>25 living essence</t>
+  </si>
+  <si>
+    <t>12 water</t>
+  </si>
+  <si>
+    <t>lights hope chapel</t>
+  </si>
+  <si>
+    <t>quest entregar papeles</t>
+  </si>
+  <si>
+    <t>burning steppes</t>
+  </si>
+  <si>
+    <t>tinkee</t>
+  </si>
+  <si>
+    <t>quest follow up baston</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1370,6 +1388,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1678,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2068,43 +2092,43 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="13">
-        <v>3</v>
-      </c>
-      <c r="F11" s="13">
+        <v>171</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37">
+        <v>10</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37">
         <v>8</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13">
-        <v>8</v>
-      </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="I11" s="37">
+        <v>15</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>175</v>
@@ -2112,14 +2136,18 @@
       <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13">
+        <v>8</v>
+      </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="13">
-        <v>8</v>
-      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -2128,31 +2156,29 @@
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="R12" s="13">
+        <v>8</v>
+      </c>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <v>4</v>
-      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13">
-        <v>10</v>
-      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="13">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -2168,19 +2194,23 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="13">
+        <v>4</v>
+      </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>10</v>
+      </c>
       <c r="I14" s="13">
         <v>15</v>
       </c>
@@ -2198,26 +2228,22 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="13">
-        <v>3</v>
-      </c>
-      <c r="F15" s="13">
-        <v>8</v>
-      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="13">
+        <v>15</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -2227,14 +2253,12 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="13">
-        <v>8</v>
-      </c>
+      <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -2242,16 +2266,18 @@
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13">
+        <v>8</v>
+      </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="13">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13">
-        <v>3</v>
-      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2261,38 +2287,38 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="S16" s="13">
+        <v>8</v>
+      </c>
       <c r="T16" s="13"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="13">
-        <v>1</v>
-      </c>
-      <c r="O17" s="13">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13">
-        <v>1</v>
-      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
@@ -2300,56 +2326,60 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="13">
-        <v>6</v>
-      </c>
+      <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="13">
-        <v>6</v>
-      </c>
-      <c r="I18" s="13">
-        <v>4</v>
-      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="N18" s="13">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13">
+        <v>1</v>
+      </c>
+      <c r="P18" s="13">
+        <v>1</v>
+      </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="13">
-        <v>2</v>
-      </c>
+      <c r="S18" s="13"/>
       <c r="T18" s="13"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13">
+        <v>6</v>
+      </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="13">
+        <v>6</v>
+      </c>
+      <c r="I19" s="13">
+        <v>4</v>
+      </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -2359,31 +2389,27 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="S19" s="13">
+        <v>2</v>
+      </c>
       <c r="T19" s="13"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="13">
-        <v>4</v>
-      </c>
+      <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="13">
-        <v>10</v>
-      </c>
-      <c r="I20" s="13">
-        <v>15</v>
-      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2398,23 +2424,25 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13">
+        <v>4</v>
+      </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I21" s="13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2430,26 +2458,24 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="13">
-        <v>3</v>
-      </c>
-      <c r="F22" s="13">
-        <v>8</v>
-      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="13">
+        <v>6</v>
+      </c>
+      <c r="I22" s="13">
+        <v>6</v>
+      </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -2459,14 +2485,12 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
-      <c r="S22" s="13">
-        <v>8</v>
-      </c>
+      <c r="S22" s="13"/>
       <c r="T22" s="13"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2474,16 +2498,18 @@
       <c r="C23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="13">
+        <v>3</v>
+      </c>
+      <c r="F23" s="13">
+        <v>8</v>
+      </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="13">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
-        <v>3</v>
-      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -2493,7 +2519,9 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
+      <c r="S23" s="13">
+        <v>8</v>
+      </c>
       <c r="T23" s="13"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -2501,7 +2529,7 @@
         <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>4</v>
@@ -2511,9 +2539,11 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
-        <v>8</v>
-      </c>
-      <c r="I24" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>3</v>
+      </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -2528,26 +2558,22 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="13">
-        <v>6</v>
-      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13">
-        <v>6</v>
-      </c>
-      <c r="I25" s="13">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -2557,90 +2583,124 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
-      <c r="S25" s="13">
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
+        <v>6</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13">
+        <v>4</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13">
         <v>2</v>
       </c>
-      <c r="T25" s="13"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="11">
-        <f>SUM(E2:E25)</f>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="11">
+        <f>SUM(E2:E26)</f>
         <v>16</v>
       </c>
-      <c r="F26" s="11">
-        <f t="shared" ref="F26:U26" si="0">SUM(F2:F25)</f>
-        <v>64</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="F27" s="11">
+        <f t="shared" ref="F27:U27" si="0">SUM(F2:F26)</f>
+        <v>74</v>
+      </c>
+      <c r="G27" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="I26" s="11">
+        <v>72</v>
+      </c>
+      <c r="I27" s="11">
         <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="J26" s="11">
+        <v>108</v>
+      </c>
+      <c r="J27" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M27" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N27" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P27" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q27" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R27" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S27" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T27" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U27" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3541,7 +3601,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3570,12 +3630,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>25</v>
@@ -3584,15 +3644,15 @@
         <v>211</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>199</v>
@@ -3601,10 +3661,10 @@
         <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
@@ -3621,12 +3681,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C5" t="s">
         <v>171</v>
@@ -3635,10 +3695,10 @@
         <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
@@ -3655,7 +3715,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -3672,7 +3732,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>6</v>
       </c>
@@ -3689,46 +3749,46 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
         <v>200</v>
       </c>
       <c r="D10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" t="s">
         <v>247</v>
       </c>
-      <c r="E10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>55</v>
@@ -3737,15 +3797,15 @@
         <v>223</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>46</v>
@@ -3754,10 +3814,10 @@
         <v>223</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>6</v>
       </c>
@@ -3774,29 +3834,29 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" t="s">
         <v>244</v>
       </c>
-      <c r="E14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -3808,24 +3868,24 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -3842,7 +3902,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>6</v>
       </c>
@@ -3859,12 +3919,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -3873,15 +3933,15 @@
         <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -3890,10 +3950,10 @@
         <v>215</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>6</v>
       </c>
@@ -3907,10 +3967,10 @@
         <v>215</v>
       </c>
       <c r="E21" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>6</v>
       </c>
@@ -3927,24 +3987,24 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="23" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>6</v>
       </c>
@@ -3961,7 +4021,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>6</v>
       </c>
@@ -3978,12 +4038,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>175</v>
@@ -3995,7 +4055,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>6</v>
       </c>
@@ -4012,41 +4072,41 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" t="s">
         <v>238</v>
       </c>
-      <c r="E28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>219</v>
       </c>
@@ -4057,34 +4117,34 @@
         <v>198</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" t="s">
         <v>229</v>
-      </c>
-      <c r="E31" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E31">
     <filterColumn colId="0">
       <filters>
-        <filter val="heal"/>
+        <filter val="tank"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E31">
@@ -4097,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4112,16 +4172,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4129,10 +4189,10 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4140,10 +4200,10 @@
         <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4151,231 +4211,231 @@
         <v>211</v>
       </c>
       <c r="B4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" t="s">
         <v>326</v>
-      </c>
-      <c r="C4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
         <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
         <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" t="s">
         <v>334</v>
-      </c>
-      <c r="C15" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" t="s">
         <v>365</v>
-      </c>
-      <c r="C20" t="s">
-        <v>366</v>
-      </c>
-      <c r="D20" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C21" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C22" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4383,101 +4443,104 @@
         <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>220</v>
+      </c>
+      <c r="D28" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>221</v>
+      </c>
+      <c r="D29" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>320</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="27"/>
+        <v>222</v>
+      </c>
+      <c r="D30" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
+        <v>351</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" t="s">
-        <v>240</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>367</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" t="s">
-        <v>241</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="B33" t="s">
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" t="s">
-        <v>242</v>
+        <v>264</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4485,130 +4548,138 @@
         <v>201</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="C35" t="s">
-        <v>375</v>
+        <v>261</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>264</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
-      </c>
-      <c r="C38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>262</v>
+        <v>342</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>318</v>
-      </c>
-      <c r="E39" s="25"/>
+        <v>350</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C40" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s">
-        <v>349</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>350</v>
+        <v>371</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B42" t="s">
-        <v>356</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>268</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C43" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>382</v>
+      </c>
+      <c r="B45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4618,7 +4689,7 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D42" r:id="rId1"/>
+    <hyperlink ref="D39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4642,22 +4713,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>191</v>
@@ -4668,7 +4739,7 @@
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -4682,7 +4753,7 @@
         <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4">
         <v>450</v>
@@ -4696,7 +4767,7 @@
         <v>760</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -4710,7 +4781,7 @@
         <v>520</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C6">
         <v>332</v>
@@ -4724,7 +4795,7 @@
         <v>900</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7">
         <v>613</v>
@@ -4738,7 +4809,7 @@
         <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C8">
         <v>701</v>
@@ -4752,7 +4823,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -4767,7 +4838,7 @@
         <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C10">
         <v>80</v>
@@ -4782,7 +4853,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -4797,7 +4868,7 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C12">
         <v>1600</v>
@@ -4812,7 +4883,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C13">
         <v>4000</v>
@@ -4832,22 +4903,22 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>191</v>
@@ -4858,7 +4929,7 @@
         <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17">
         <v>290</v>
@@ -4872,7 +4943,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18">
         <v>1000</v>
@@ -4886,7 +4957,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19">
         <v>1359</v>
@@ -4900,7 +4971,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20">
         <v>470</v>
@@ -4914,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21">
         <v>6000</v>
@@ -4928,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C22">
         <v>1200</v>
@@ -4942,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C23">
         <v>1443</v>
@@ -4956,7 +5027,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C24">
         <v>4393</v>
@@ -4970,7 +5041,7 @@
         <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C25">
         <v>700</v>
@@ -4984,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C26">
         <v>7800</v>
@@ -4998,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C27">
         <v>1000</v>
@@ -5012,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C28">
         <v>4895</v>
@@ -5026,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C29">
         <v>5698</v>
@@ -5040,7 +5111,7 @@
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C30">
         <v>2500</v>
@@ -5054,7 +5125,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C31">
         <v>11249</v>

--- a/druid/gearenchant.xlsx
+++ b/druid/gearenchant.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wowinvestor\druid\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="13704" windowHeight="8820" tabRatio="865" activeTab="4"/>
+    <workbookView xWindow="14880" yWindow="120" windowWidth="13710" windowHeight="8820" tabRatio="865"/>
   </bookViews>
   <sheets>
     <sheet name="ecnahnts" sheetId="1" r:id="rId1"/>
@@ -15,16 +20,16 @@
     <sheet name="professions" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">definitivo!$A$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">definitivo!$A$1:$E$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">farm!$A$1:$H$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">misc!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="340">
   <si>
     <t>name</t>
   </si>
@@ -605,60 +610,18 @@
     <t>where2</t>
   </si>
   <si>
-    <t>Bone Ring Helm</t>
-  </si>
-  <si>
-    <t>Master Sergeant’s Insignia</t>
-  </si>
-  <si>
-    <t>Golden Mantle of the Dawn</t>
-  </si>
-  <si>
-    <t>Sergeant's Cape</t>
-  </si>
-  <si>
-    <t>Smoking Heart of the Mountain</t>
-  </si>
-  <si>
     <t>neck</t>
   </si>
   <si>
     <t>shoulders</t>
   </si>
   <si>
-    <t>waist</t>
-  </si>
-  <si>
     <t>scholo</t>
   </si>
   <si>
-    <t>rattlegore</t>
-  </si>
-  <si>
     <t>pvp</t>
   </si>
   <si>
-    <t>rank 4</t>
-  </si>
-  <si>
-    <t>rank 3</t>
-  </si>
-  <si>
-    <t>crafted</t>
-  </si>
-  <si>
-    <t>leatherworking</t>
-  </si>
-  <si>
-    <t>lbrs</t>
-  </si>
-  <si>
-    <t>urok</t>
-  </si>
-  <si>
-    <t>ras frostwhisper</t>
-  </si>
-  <si>
     <t>brd</t>
   </si>
   <si>
@@ -677,12 +640,6 @@
     <t>enchanting</t>
   </si>
   <si>
-    <t>for the horde!</t>
-  </si>
-  <si>
-    <t>Battle of Darrowshire</t>
-  </si>
-  <si>
     <t>heal</t>
   </si>
   <si>
@@ -707,42 +664,12 @@
     <t>cho'rush</t>
   </si>
   <si>
-    <t>briarwood reed</t>
-  </si>
-  <si>
     <t>ubrs</t>
   </si>
   <si>
-    <t>jed runewatcher</t>
-  </si>
-  <si>
-    <t>royal seal of eldre</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>diremaul</t>
-  </si>
-  <si>
-    <t>rosewine circle</t>
-  </si>
-  <si>
-    <t>fordring's seal</t>
-  </si>
-  <si>
-    <t>in dreams</t>
-  </si>
-  <si>
-    <t>verdant footpads</t>
-  </si>
-  <si>
     <t>strat ud</t>
   </si>
   <si>
-    <t>stonespine</t>
-  </si>
-  <si>
     <t>shoulders (best)</t>
   </si>
   <si>
@@ -752,70 +679,15 @@
     <t>bracers (best for a while)</t>
   </si>
   <si>
-    <t>padre's trousers</t>
-  </si>
-  <si>
     <t>diremaul w</t>
   </si>
   <si>
-    <t>illyanna</t>
-  </si>
-  <si>
-    <t>whipvine cord</t>
-  </si>
-  <si>
     <t>diremaul e</t>
   </si>
   <si>
-    <t>alzzin</t>
-  </si>
-  <si>
-    <t>hands of the exalted herald</t>
-  </si>
-  <si>
-    <t>princess</t>
-  </si>
-  <si>
-    <t>bracers of prosperity</t>
-  </si>
-  <si>
-    <t>king gordok</t>
-  </si>
-  <si>
-    <t>robes of the exalted</t>
-  </si>
-  <si>
-    <t>baron</t>
-  </si>
-  <si>
-    <t>archivist cape</t>
-  </si>
-  <si>
-    <t>roccor</t>
-  </si>
-  <si>
-    <t>mantle of lost hope</t>
-  </si>
-  <si>
     <t>ramstein</t>
   </si>
   <si>
-    <t>completar q: Operation: Death to Angerforge</t>
-  </si>
-  <si>
-    <t>acabar al menos un brd para la mision de la princess</t>
-  </si>
-  <si>
-    <t>I was able to get the quest and complete it solo. Things to watch out for:
-If you see 2 or more Isilien's at the tower running into Hearthglen with your disguise, wait until they despawn.
-Scarlet subterfuge:
-- Do NOT turn in if the 4 NPCs are NOT surrounding him.
-- If Taelan does not spawn, delete your WDB folder, get a fresh new illusion from Myranda and try again.</t>
-  </si>
-  <si>
-    <t>pillar la foto de familia de stratholme para tyrion, y despues a por miranda</t>
-  </si>
-  <si>
     <t>if you put the quest trinku and do not see the ghosts try to change their trinki places helped me</t>
   </si>
   <si>
@@ -837,9 +709,6 @@
     <t>compras</t>
   </si>
   <si>
-    <t>iron counterweight</t>
-  </si>
-  <si>
     <t>manual crowd pummelers</t>
   </si>
   <si>
@@ -864,9 +733,6 @@
     <t>mithril spurs</t>
   </si>
   <si>
-    <t>mount speed</t>
-  </si>
-  <si>
     <t>alter</t>
   </si>
   <si>
@@ -963,9 +829,6 @@
     <t>ah</t>
   </si>
   <si>
-    <t>warden staff</t>
-  </si>
-  <si>
     <t>miri</t>
   </si>
   <si>
@@ -975,45 +838,18 @@
     <t>pots tanke / healer</t>
   </si>
   <si>
-    <t>mats de enchanting (ver pagina professions)</t>
-  </si>
-  <si>
-    <t>2 righteous orb</t>
-  </si>
-  <si>
-    <t>8 larval acid</t>
-  </si>
-  <si>
     <t>eastern plaguelands</t>
   </si>
   <si>
     <t>western plaguelands</t>
   </si>
   <si>
-    <t>terminar la mision de chromie en las western (raid)</t>
-  </si>
-  <si>
     <t>donde2</t>
   </si>
   <si>
-    <t>Angerforge</t>
-  </si>
-  <si>
-    <t>Emperor</t>
-  </si>
-  <si>
-    <t>Roccor</t>
-  </si>
-  <si>
     <t>que2</t>
   </si>
   <si>
-    <t>idol cat</t>
-  </si>
-  <si>
-    <t>formula smoking heart of the mountain</t>
-  </si>
-  <si>
     <t>blacksmith</t>
   </si>
   <si>
@@ -1026,9 +862,6 @@
     <t>riri</t>
   </si>
   <si>
-    <t>varios</t>
-  </si>
-  <si>
     <t>ungoro</t>
   </si>
   <si>
@@ -1044,18 +877,6 @@
     <t>malefic bracers</t>
   </si>
   <si>
-    <t>Mor Grayhoof</t>
-  </si>
-  <si>
-    <t>idol reju (cuando esté)</t>
-  </si>
-  <si>
-    <t>foto familia</t>
-  </si>
-  <si>
-    <t>magistrate barthilas</t>
-  </si>
-  <si>
     <t>aboms</t>
   </si>
   <si>
@@ -1068,9 +889,6 @@
     <t>cd de mooncloth</t>
   </si>
   <si>
-    <t>idol de oso (cuando salga)</t>
-  </si>
-  <si>
     <t>12 guardian stone</t>
   </si>
   <si>
@@ -1089,27 +907,6 @@
     <t>ver en donde estamos, la siguiente parte era ir a gadgetan a pagar 15g</t>
   </si>
   <si>
-    <t>First Sergeant's Leather Armguards</t>
-  </si>
-  <si>
-    <t>rank 5</t>
-  </si>
-  <si>
-    <t>The Princess Saved?</t>
-  </si>
-  <si>
-    <t>150 Linen Cloth</t>
-  </si>
-  <si>
-    <t>stonetalon</t>
-  </si>
-  <si>
-    <t>arpias</t>
-  </si>
-  <si>
-    <t>200 wool cloth</t>
-  </si>
-  <si>
     <t>Venture Co. Strip Miner</t>
   </si>
   <si>
@@ -1125,71 +922,140 @@
     <t>38 slots inv</t>
   </si>
   <si>
-    <t>10 slots inv</t>
-  </si>
-  <si>
     <t>26 slots inv</t>
   </si>
   <si>
-    <t>ras</t>
-  </si>
-  <si>
-    <t>major mana potion recipe</t>
-  </si>
-  <si>
-    <t>emperor</t>
-  </si>
-  <si>
-    <t>xxxxxx</t>
-  </si>
-  <si>
-    <t>gusanos</t>
-  </si>
-  <si>
     <t>mighty spirit</t>
   </si>
   <si>
     <t>tbh</t>
   </si>
   <si>
-    <t>greater agility gloves</t>
-  </si>
-  <si>
-    <t>orgrimmar</t>
-  </si>
-  <si>
-    <t>thrall</t>
-  </si>
-  <si>
-    <t>quest follow up onyxia</t>
-  </si>
-  <si>
-    <t>25 living essence</t>
-  </si>
-  <si>
-    <t>12 water</t>
-  </si>
-  <si>
-    <t>lights hope chapel</t>
-  </si>
-  <si>
-    <t>quest entregar papeles</t>
-  </si>
-  <si>
-    <t>burning steppes</t>
-  </si>
-  <si>
-    <t>tinkee</t>
-  </si>
-  <si>
-    <t>quest follow up baston</t>
+    <t>general anger</t>
+  </si>
+  <si>
+    <t>pants tank</t>
+  </si>
+  <si>
+    <t>eastern</t>
+  </si>
+  <si>
+    <t>battle for darrowshire</t>
+  </si>
+  <si>
+    <t>dark rune</t>
+  </si>
+  <si>
+    <t>(o satiros)</t>
+  </si>
+  <si>
+    <t>archivist</t>
+  </si>
+  <si>
+    <t>bbotas tanke</t>
+  </si>
+  <si>
+    <t>capa heals</t>
+  </si>
+  <si>
+    <t>the unforgiven</t>
+  </si>
+  <si>
+    <t>bracers heals</t>
+  </si>
+  <si>
+    <t>Dark Warder's Pauldrons</t>
+  </si>
+  <si>
+    <t>cape of the black baron</t>
+  </si>
+  <si>
+    <t>cadaverous armor</t>
+  </si>
+  <si>
+    <t>Legionnaire's Band</t>
+  </si>
+  <si>
+    <t>BRD</t>
+  </si>
+  <si>
+    <t>Warder Stilgiss</t>
+  </si>
+  <si>
+    <t>baron rivendare</t>
+  </si>
+  <si>
+    <t>Emperor Dagran</t>
+  </si>
+  <si>
+    <t>Isalien</t>
+  </si>
+  <si>
+    <t>prince thorleldrin</t>
+  </si>
+  <si>
+    <t>only)</t>
+  </si>
+  <si>
+    <t>wsg honored</t>
+  </si>
+  <si>
+    <t>Pendant of Celerity</t>
+  </si>
+  <si>
+    <t>drakki</t>
+  </si>
+  <si>
+    <t>notas</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>flame ashenvale</t>
+  </si>
+  <si>
+    <t>flame barrens</t>
+  </si>
+  <si>
+    <t>flame darkshore</t>
+  </si>
+  <si>
+    <t>flame stonetalon</t>
+  </si>
+  <si>
+    <t>flame hillsbrad</t>
+  </si>
+  <si>
+    <t>flame silverpine</t>
+  </si>
+  <si>
+    <t>flame westfall</t>
+  </si>
+  <si>
+    <t>flame wetlands</t>
+  </si>
+  <si>
+    <t>flame brs</t>
+  </si>
+  <si>
+    <t>flame strat</t>
+  </si>
+  <si>
+    <t>lord incendius</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1239,8 +1105,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,8 +1172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1332,12 +1215,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1353,13 +1245,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1379,7 +1265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1388,12 +1273,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1410,6 +1317,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1458,7 +1368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1493,7 +1403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1704,19 +1614,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="19" width="4.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>151</v>
       </c>
@@ -1781,854 +1700,859 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12">
         <v>8</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12">
         <v>6</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>6</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <v>1</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>4</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12">
         <v>2</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39">
         <v>1</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="39">
         <v>3</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="21"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12">
         <v>4</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>20</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>6</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <v>1</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>3</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>8</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12">
         <v>1</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39">
         <v>2</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U9" s="21"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39">
         <v>1</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="39">
         <v>1</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="39">
         <v>1</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>171</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37">
+      <c r="D11" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34">
         <v>10</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34">
         <v>8</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="34">
         <v>15</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>3</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>8</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12">
         <v>8</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
         <v>8</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
         <v>4</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
         <v>10</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>15</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>185</v>
       </c>
       <c r="B15" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
         <v>15</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>8</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12">
         <v>8</v>
       </c>
-      <c r="T16" s="13"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41">
         <v>1</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="41">
         <v>3</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12">
         <v>1</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="12">
         <v>1</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="12">
         <v>1</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>189</v>
       </c>
       <c r="B19" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
         <v>6</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
         <v>6</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>4</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12">
         <v>2</v>
       </c>
-      <c r="T19" s="13"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
         <v>4</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
         <v>10</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>15</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>190</v>
       </c>
       <c r="B22" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12">
         <v>6</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>6</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>187</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>3</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>8</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12">
         <v>8</v>
       </c>
-      <c r="T23" s="13"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T23" s="12"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>188</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <v>3</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
         <v>8</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>189</v>
       </c>
       <c r="B26" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12">
         <v>6</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12">
         <v>6</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <v>4</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12">
         <v>2</v>
       </c>
-      <c r="T26" s="13"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="11">
         <f>SUM(E2:E26)</f>
         <v>16</v>
@@ -2711,19 +2635,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2737,8 +2661,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2748,19 +2672,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2770,8 +2694,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2781,8 +2705,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2792,8 +2716,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2803,8 +2727,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2814,8 +2738,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2828,8 +2752,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2839,8 +2763,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2850,19 +2774,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2872,19 +2796,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2894,7 +2818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>104</v>
       </c>
@@ -2905,7 +2829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
@@ -2916,7 +2840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>127</v>
       </c>
@@ -2927,7 +2851,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>132</v>
       </c>
@@ -2938,7 +2862,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>87</v>
       </c>
@@ -2949,7 +2873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>120</v>
       </c>
@@ -2960,7 +2884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>77</v>
       </c>
@@ -2971,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>134</v>
       </c>
@@ -2982,7 +2906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
@@ -2993,7 +2917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>94</v>
       </c>
@@ -3004,7 +2928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
@@ -3015,7 +2939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -3026,7 +2950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>75</v>
       </c>
@@ -3037,7 +2961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>143</v>
       </c>
@@ -3048,7 +2972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -3059,7 +2983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
@@ -3070,7 +2994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>98</v>
       </c>
@@ -3081,7 +3005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>43</v>
       </c>
@@ -3092,7 +3016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
@@ -3103,7 +3027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>95</v>
       </c>
@@ -3114,7 +3038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>18</v>
       </c>
@@ -3125,7 +3049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>89</v>
       </c>
@@ -3136,7 +3060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>113</v>
       </c>
@@ -3147,7 +3071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
@@ -3158,7 +3082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -3169,7 +3093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>147</v>
       </c>
@@ -3180,7 +3104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>97</v>
       </c>
@@ -3191,7 +3115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>107</v>
       </c>
@@ -3202,7 +3126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>58</v>
       </c>
@@ -3213,7 +3137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>116</v>
       </c>
@@ -3224,7 +3148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>26</v>
       </c>
@@ -3235,7 +3159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>83</v>
       </c>
@@ -3246,7 +3170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
@@ -3272,7 +3196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>29</v>
       </c>
@@ -3292,7 +3216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>81</v>
       </c>
@@ -3303,7 +3227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>141</v>
       </c>
@@ -3314,7 +3238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>61</v>
       </c>
@@ -3325,7 +3249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>15</v>
       </c>
@@ -3336,7 +3260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>114</v>
       </c>
@@ -3347,7 +3271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>106</v>
       </c>
@@ -3358,7 +3282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>67</v>
       </c>
@@ -3369,7 +3293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>47</v>
       </c>
@@ -3380,7 +3304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>118</v>
       </c>
@@ -3391,8 +3315,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -3402,7 +3326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>109</v>
       </c>
@@ -3413,7 +3337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>102</v>
       </c>
@@ -3424,7 +3348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>124</v>
       </c>
@@ -3435,7 +3359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>130</v>
       </c>
@@ -3446,7 +3370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -3457,7 +3381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>62</v>
       </c>
@@ -3468,7 +3392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>145</v>
       </c>
@@ -3479,8 +3403,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -3490,7 +3414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -3501,7 +3425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>90</v>
       </c>
@@ -3512,7 +3436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>44</v>
       </c>
@@ -3523,7 +3447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>135</v>
       </c>
@@ -3534,7 +3458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>92</v>
       </c>
@@ -3586,9 +3510,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -3597,23 +3521,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3629,1067 +3552,1905 @@
       <c r="E1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>219</v>
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="22"/>
+      <c r="AY5" s="22"/>
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="22"/>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="22"/>
+      <c r="BH7" s="22"/>
+      <c r="BI7" s="22"/>
+      <c r="BJ7" s="22"/>
+      <c r="BK7" s="22"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="22"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="22"/>
+      <c r="BC8" s="22"/>
+      <c r="BD8" s="22"/>
+      <c r="BE8" s="22"/>
+      <c r="BF8" s="22"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="22"/>
+      <c r="BI8" s="22"/>
+      <c r="BJ8" s="22"/>
+      <c r="BK8" s="22"/>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22"/>
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22"/>
+      <c r="BK9" s="22"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="22"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="22"/>
+      <c r="BF11" s="22"/>
+      <c r="BG11" s="22"/>
+      <c r="BH11" s="22"/>
+      <c r="BI11" s="22"/>
+      <c r="BJ11" s="22"/>
+      <c r="BK11" s="22"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="22"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BG13" s="22"/>
+      <c r="BH13" s="22"/>
+      <c r="BI13" s="22"/>
+      <c r="BJ13" s="22"/>
+      <c r="BK13" s="22"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="22"/>
+      <c r="BI14" s="22"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="22"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="E15" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="22"/>
+      <c r="BG15" s="22"/>
+      <c r="BH15" s="22"/>
+      <c r="BI15" s="22"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="22"/>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" t="s">
-        <v>227</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" t="s">
-        <v>229</v>
-      </c>
+      <c r="E16" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="22"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="22"/>
+      <c r="BJ16" s="22"/>
+      <c r="BK16" s="22"/>
+    </row>
+    <row r="17" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="22"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="22"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="22"/>
+    </row>
+    <row r="18" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="22"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="22"/>
+      <c r="BD18" s="22"/>
+      <c r="BE18" s="22"/>
+      <c r="BF18" s="22"/>
+      <c r="BG18" s="22"/>
+      <c r="BH18" s="22"/>
+      <c r="BI18" s="22"/>
+      <c r="BJ18" s="22"/>
+      <c r="BK18" s="22"/>
+    </row>
+    <row r="19" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="22"/>
+      <c r="BC19" s="22"/>
+      <c r="BD19" s="22"/>
+      <c r="BE19" s="22"/>
+      <c r="BF19" s="22"/>
+      <c r="BG19" s="22"/>
+      <c r="BH19" s="22"/>
+      <c r="BI19" s="22"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="22"/>
+    </row>
+    <row r="20" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
+      <c r="BD20" s="22"/>
+      <c r="BE20" s="22"/>
+      <c r="BF20" s="22"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="22"/>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="22"/>
+    </row>
+    <row r="21" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
+    </row>
+    <row r="22" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="22"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="22"/>
+      <c r="BI22" s="22"/>
+      <c r="BJ22" s="22"/>
+      <c r="BK22" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E31">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="tank"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:E31">
-      <sortCondition ref="D1:D31"/>
+  <autoFilter ref="A1:E8">
+    <sortState ref="A2:E25">
+      <sortCondition ref="D1:D16"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.google.com/url?q=http://db.vanillagaming.org/?item%3D22241&amp;sa=D&amp;ust=1528541406019000&amp;usg=AFQjCNHixy7e_sasAaG5vgF_pj9WZzuXIQ"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://www.google.com/url?q=http://db.vanillagaming.org/?item%3D18375&amp;sa=D&amp;ust=1528541406063000&amp;usg=AFQjCNFmBxMHfY-uMLtwRdvv0tSOI_KO_Q"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.google.com/url?q=http://db.vanillagaming.org/?item%3D22472&amp;sa=D&amp;ust=1528541406115000&amp;usg=AFQjCNHEsfXqrReEDuVy--fe4eZUObVLSQ"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.google.com/url?q=http://db.vanillagaming.org/?item%3D18500&amp;sa=D&amp;ust=1528541406138000&amp;usg=AFQjCNHUkossf-_XnvKzFJAq5cUNxEXXyw"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://www.google.com/url?q=http://db.vanillagaming.org/?item%3D19510&amp;sa=D&amp;ust=1528541406137000&amp;usg=AFQjCNGnzaRD-1SG_JRRLjJcTq-4S6Lf6g"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://www.google.com/url?q=http://db.vanillagaming.org/?item%3D11815&amp;sa=D&amp;ust=1528541406149000&amp;usg=AFQjCNEjGv9UoUHsL2SSm-j6Cn8NtslDAw"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.google.com/url?q=http://db.vanillagaming.org/?item%3D19120&amp;sa=D&amp;ust=1528541406148000&amp;usg=AFQjCNHeU1u16tWKHjtnOw-6EVXjHccYsw"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>275</v>
       </c>
-      <c r="B1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
         <v>276</v>
       </c>
-      <c r="D1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" t="s">
-        <v>328</v>
-      </c>
       <c r="C11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="D15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="D16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B18" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
-      </c>
-      <c r="D20" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D21" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>362</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="D22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>330</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="C23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C25" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>319</v>
-      </c>
-      <c r="C26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>203</v>
       </c>
       <c r="C30" t="s">
         <v>222</v>
       </c>
-      <c r="D30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" t="s">
-        <v>351</v>
-      </c>
-      <c r="C31" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" t="s">
-        <v>367</v>
-      </c>
-      <c r="C32" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" t="s">
-        <v>272</v>
-      </c>
-      <c r="C34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" t="s">
-        <v>340</v>
-      </c>
-      <c r="C35" t="s">
-        <v>261</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" t="s">
-        <v>316</v>
-      </c>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" t="s">
-        <v>341</v>
-      </c>
-      <c r="C37" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>273</v>
-      </c>
-      <c r="B39" t="s">
-        <v>349</v>
-      </c>
-      <c r="C39" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>279</v>
-      </c>
-      <c r="B40" t="s">
-        <v>344</v>
-      </c>
-      <c r="C40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>318</v>
-      </c>
-      <c r="B41" t="s">
-        <v>371</v>
-      </c>
-      <c r="C41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>375</v>
-      </c>
-      <c r="B43" t="s">
-        <v>376</v>
-      </c>
-      <c r="C43" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>318</v>
-      </c>
-      <c r="B44" t="s">
-        <v>380</v>
-      </c>
-      <c r="C44" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>382</v>
-      </c>
-      <c r="B45" t="s">
-        <v>383</v>
-      </c>
-      <c r="C45" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
-    <sortState ref="A2:D30">
+    <sortState ref="A2:D4">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1"/>
+    <hyperlink ref="D28" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4698,48 +5459,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="C3">
         <v>21</v>
@@ -4747,13 +5517,19 @@
       <c r="D3">
         <v>3360</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="C4">
         <v>450</v>
@@ -4762,12 +5538,12 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>760</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -4776,12 +5552,12 @@
         <v>148200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>520</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="C6">
         <v>332</v>
@@ -4790,12 +5566,12 @@
         <v>172640</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>900</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="C7">
         <v>613</v>
@@ -4804,12 +5580,12 @@
         <v>551700</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C8">
         <v>701</v>
@@ -4818,12 +5594,12 @@
         <v>168240</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -4833,12 +5609,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C10">
         <v>80</v>
@@ -4848,12 +5624,12 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="C11">
         <v>400</v>
@@ -4863,12 +5639,12 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C12">
         <v>1600</v>
@@ -4878,12 +5654,12 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="C13">
         <v>4000</v>
@@ -4893,43 +5669,43 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="31" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <f>SUM(D3:D13)/10000</f>
         <v>141.19399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="B16" s="28" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C17">
         <v>290</v>
@@ -4938,12 +5714,12 @@
         <v>59740</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="C18">
         <v>1000</v>
@@ -4952,12 +5728,12 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C19">
         <v>1359</v>
@@ -4966,12 +5742,12 @@
         <v>13590</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="C20">
         <v>470</v>
@@ -4980,12 +5756,12 @@
         <v>31490</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C21">
         <v>6000</v>
@@ -4994,12 +5770,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="C22">
         <v>1200</v>
@@ -5008,12 +5784,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C23">
         <v>1443</v>
@@ -5022,12 +5798,12 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="C24">
         <v>4393</v>
@@ -5036,12 +5812,12 @@
         <v>87860</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="C25">
         <v>700</v>
@@ -5050,12 +5826,12 @@
         <v>119700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="C26">
         <v>7800</v>
@@ -5064,12 +5840,12 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="C27">
         <v>1000</v>
@@ -5078,12 +5854,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="C28">
         <v>4895</v>
@@ -5092,12 +5868,12 @@
         <v>9790</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="C29">
         <v>5698</v>
@@ -5106,12 +5882,12 @@
         <v>56980</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="C30">
         <v>2500</v>
@@ -5120,12 +5896,12 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="C31">
         <v>11249</v>
@@ -5134,11 +5910,11 @@
         <v>269976</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="26">
         <f>SUM(D17:D31)/10000</f>
         <v>81.301199999999994</v>
       </c>
